--- a/2.ReinforcementLearning/CartPole/CartPole-Multi-DQN/performance.xlsx
+++ b/2.ReinforcementLearning/CartPole/CartPole-Multi-DQN/performance.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\deeplink_public\2.ReinforcementLearning\CartPole\CartPole-Multi-DQN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dohyungkwon/git/deeplink_public/2.ReinforcementLearning/CartPole/CartPole-Multi-DQN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9218"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="시트1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Without Transfer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +116,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,18 +396,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -417,7 +424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -431,7 +438,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -445,7 +452,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -459,7 +466,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -473,7 +480,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -487,7 +494,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -501,7 +508,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -515,7 +522,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -529,7 +536,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -543,7 +550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -557,7 +564,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -568,7 +575,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -579,7 +586,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -590,7 +597,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -601,7 +608,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -612,7 +619,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -623,7 +630,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -634,7 +641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -645,7 +652,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -656,7 +663,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -667,7 +674,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,7 +691,7 @@
         <v>286.89999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,4 +713,229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>928</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>676</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>597</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>754</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C4:C23)</f>
+        <v>738.75</v>
+      </c>
+      <c r="D24" s="2" t="e">
+        <f>AVERAGE(D4:D23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="2" t="e">
+        <f>AVERAGE(E4:E23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <f>_xlfn.STDEV.P(C4:C23)</f>
+        <v>122.55483466595678</v>
+      </c>
+      <c r="D25" s="2" t="e">
+        <f>_xlfn.STDEV.P(D4:D23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="2" t="e">
+        <f>_xlfn.STDEV.P(E4:E23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2.ReinforcementLearning/CartPole/CartPole-Multi-DQN/performance.xlsx
+++ b/2.ReinforcementLearning/CartPole/CartPole-Multi-DQN/performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -786,7 +786,9 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>729</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -794,7 +796,9 @@
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>835</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -802,7 +806,9 @@
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>591</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -810,7 +816,9 @@
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>851</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -906,7 +914,7 @@
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C4:C23)</f>
-        <v>738.75</v>
+        <v>745.125</v>
       </c>
       <c r="D24" s="2" t="e">
         <f>AVERAGE(D4:D23)</f>
@@ -923,7 +931,7 @@
       </c>
       <c r="C25" s="2">
         <f>_xlfn.STDEV.P(C4:C23)</f>
-        <v>122.55483466595678</v>
+        <v>113.76668833626124</v>
       </c>
       <c r="D25" s="2" t="e">
         <f>_xlfn.STDEV.P(D4:D23)</f>
